--- a/simulations/raw_inclusion_exclusion/Moran_2021 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Moran_2021 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.1261261261261261</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D3">
-        <v>0.3603603603603603</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="E3">
-        <v>0.7387387387387387</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="F3">
-        <v>0.9369369369369369</v>
+        <v>0.9279279279279279</v>
       </c>
       <c r="G3">
         <v>0.9819819819819819</v>
       </c>
       <c r="H3">
-        <v>0.1317606444188723</v>
+        <v>0.1296509397775221</v>
       </c>
       <c r="I3">
-        <v>0.3546421200742189</v>
+        <v>0.385381854517657</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>-0.01801801801801802</v>
       </c>
       <c r="K3">
-        <v>1865.738738738739</v>
+        <v>2022.603603603604</v>
       </c>
       <c r="L3">
         <v>11</v>
@@ -755,34 +755,34 @@
         <v>99</v>
       </c>
       <c r="Q3">
-        <v>316</v>
+        <v>524</v>
       </c>
       <c r="R3">
-        <v>836</v>
+        <v>987</v>
       </c>
       <c r="S3">
-        <v>1553</v>
+        <v>1836</v>
       </c>
       <c r="T3">
-        <v>2526</v>
+        <v>2817</v>
       </c>
       <c r="U3">
-        <v>3485</v>
+        <v>3583</v>
       </c>
       <c r="V3">
-        <v>4787</v>
+        <v>4579</v>
       </c>
       <c r="W3">
-        <v>4267</v>
+        <v>4116</v>
       </c>
       <c r="X3">
-        <v>3550</v>
+        <v>3267</v>
       </c>
       <c r="Y3">
-        <v>2577</v>
+        <v>2286</v>
       </c>
       <c r="Z3">
-        <v>1618</v>
+        <v>1520</v>
       </c>
       <c r="AA3">
         <v>100</v>
@@ -800,19 +800,19 @@
         <v>12</v>
       </c>
       <c r="AF3">
-        <v>0.938076</v>
+        <v>0.897315</v>
       </c>
       <c r="AG3">
-        <v>0.836175</v>
+        <v>0.806584</v>
       </c>
       <c r="AH3">
-        <v>0.695669</v>
+        <v>0.640212</v>
       </c>
       <c r="AI3">
-        <v>0.504997</v>
+        <v>0.447972</v>
       </c>
       <c r="AJ3">
-        <v>0.317068</v>
+        <v>0.297864</v>
       </c>
     </row>
   </sheetData>
